--- a/script/税务云-正式环境fapiao/4.企业开票/开具蓝票-正.xlsx
+++ b/script/税务云-正式环境fapiao/4.企业开票/开具蓝票-正.xlsx
@@ -155,7 +155,7 @@
     <t>勾选扣除额</t>
   </si>
   <si>
-    <t>//*[@id="content"]/div[1]/div[1]/div/div[3]/div/input</t>
+    <t>//div[@class='fp-page-header']//input[@title='请输入金额']</t>
   </si>
   <si>
     <t>输入扣除额</t>
@@ -709,10 +709,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -737,16 +737,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,14 +786,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,14 +814,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -806,7 +823,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -819,41 +836,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -866,8 +865,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -924,7 +924,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,7 +942,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,13 +1014,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,37 +1044,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,25 +1056,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,49 +1080,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,21 +1101,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1130,17 +1115,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1162,8 +1141,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1178,13 +1159,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1205,10 +1205,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1217,16 +1217,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1235,115 +1235,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1804,10 +1804,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F232"/>
+  <dimension ref="A1:F233"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="C194" sqref="C194"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2092,22 +2092,15 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="A20" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="10"/>
       <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21" t="s">
-        <v>41</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="7" t="s">
@@ -2117,38 +2110,42 @@
         <v>2</v>
       </c>
       <c r="C21" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D22" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F22" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="22" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22">
+      <c r="C23" s="10"/>
+      <c r="D23">
         <v>2000</v>
       </c>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>46</v>
-      </c>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="7" t="s">
@@ -2157,42 +2154,42 @@
       <c r="B24" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>48</v>
+      <c r="C24" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>51</v>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B26" t="s">
-        <v>2</v>
+      <c r="B26" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2202,45 +2199,42 @@
       <c r="B27" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F28" s="9" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>59</v>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2250,28 +2244,31 @@
       <c r="B30" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
         <v>60</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F31" s="10" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2282,10 +2279,10 @@
         <v>2</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2296,10 +2293,10 @@
         <v>2</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2309,28 +2306,25 @@
       <c r="B34" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>69</v>
+      <c r="C34" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="7" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2341,13 +2335,13 @@
         <v>2</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2357,14 +2351,14 @@
       <c r="B37" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37">
-        <v>12</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>77</v>
+      <c r="C37" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2374,14 +2368,14 @@
       <c r="B38" t="s">
         <v>2</v>
       </c>
-      <c r="C38" t="s">
-        <v>78</v>
+      <c r="C38" s="20" t="s">
+        <v>76</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2391,14 +2385,14 @@
       <c r="B39" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" t="s">
-        <v>81</v>
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2409,206 +2403,209 @@
         <v>2</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>85</v>
+        <v>80</v>
+      </c>
+      <c r="D40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="7" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B41" t="s">
         <v>2</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" s="20"/>
-      <c r="E41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="10"/>
+        <v>83</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="7" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D42" s="20"/>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="10"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="7" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B43" t="s">
         <v>2</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" s="20"/>
-      <c r="E43" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="10"/>
+        <v>87</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B44" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="20"/>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C45" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="25" t="s">
+      <c r="D45" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F45" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" spans="1:6">
-      <c r="A45" s="11"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13" t="s">
+    <row r="46" s="1" customFormat="1" spans="1:6">
+      <c r="A46" s="11"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D45" s="26"/>
-      <c r="E45" s="1" t="s">
+      <c r="D46" s="26"/>
+      <c r="E46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F45" s="27"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="F46" s="27"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" t="s">
-        <v>80</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>82</v>
+      <c r="B47" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="7" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B48" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F49" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" s="3" customFormat="1" spans="1:6">
-      <c r="A49" s="28" t="s">
+    <row r="50" s="3" customFormat="1" spans="1:6">
+      <c r="A50" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" s="28" t="s">
+      <c r="B50" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F49" s="29" t="s">
+      <c r="F50" s="29" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="7" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C51" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="F52" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="52" s="2" customFormat="1" spans="1:6">
-      <c r="A52" s="30" t="s">
+    <row r="53" s="2" customFormat="1" spans="1:6">
+      <c r="A53" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C52" s="31"/>
-      <c r="D52" s="2">
+      <c r="C53" s="31"/>
+      <c r="D53" s="2">
         <v>1000</v>
       </c>
-      <c r="F52" s="31"/>
-    </row>
-    <row r="53" s="2" customFormat="1" spans="1:6">
-      <c r="A53" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="31" t="s">
-        <v>13</v>
-      </c>
+      <c r="F53" s="31"/>
     </row>
     <row r="54" s="2" customFormat="1" spans="1:6">
       <c r="A54" s="15" t="s">
@@ -2618,26 +2615,25 @@
         <v>2</v>
       </c>
       <c r="C54" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" s="2" customFormat="1" spans="1:6">
+      <c r="A55" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="17" t="s">
+      <c r="F55" s="17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B55" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F55" s="9"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="18" t="s">
@@ -2647,10 +2643,10 @@
         <v>2</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>101</v>
       </c>
       <c r="F56" s="9"/>
     </row>
@@ -2662,10 +2658,10 @@
         <v>2</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="F57" s="9"/>
     </row>
@@ -2677,53 +2673,54 @@
         <v>2</v>
       </c>
       <c r="C58" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="9"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="16" t="s">
+      <c r="D59" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F58" s="9"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59" t="s">
-        <v>2</v>
-      </c>
-      <c r="C59" s="9" t="s">
+      <c r="F59" s="9"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="D60" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="F60" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="22" t="s">
+    <row r="61" spans="1:6">
+      <c r="A61" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C60" s="10"/>
-      <c r="D60">
+      <c r="C61" s="10"/>
+      <c r="D61">
         <v>2000</v>
       </c>
-      <c r="F60" s="9"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B61" t="s">
-        <v>2</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>46</v>
-      </c>
+      <c r="F61" s="9"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="7" t="s">
@@ -2732,42 +2729,42 @@
       <c r="B62" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E62" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>48</v>
+      <c r="C62" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>51</v>
+      <c r="B63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B64" t="s">
-        <v>2</v>
+      <c r="B64" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2777,45 +2774,42 @@
       <c r="B65" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F65" s="9" t="s">
+      <c r="F66" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="23" t="s">
+    <row r="67" spans="1:6">
+      <c r="A67" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B66" t="s">
-        <v>2</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
         <v>55</v>
       </c>
-      <c r="D66" s="24" t="s">
+      <c r="D67" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="F67" s="9" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D67" t="s">
-        <v>22</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2825,28 +2819,31 @@
       <c r="B68" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C68" t="s">
-        <v>60</v>
+      <c r="C68" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="D68" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B69" t="s">
-        <v>2</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>62</v>
+        <v>27</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" t="s">
+        <v>24</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2857,10 +2854,10 @@
         <v>2</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2871,10 +2868,10 @@
         <v>2</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2884,28 +2881,25 @@
       <c r="B72" t="s">
         <v>2</v>
       </c>
-      <c r="C72" s="10" t="s">
-        <v>68</v>
+      <c r="C72" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="7" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B73" t="s">
         <v>2</v>
       </c>
-      <c r="C73" t="s">
-        <v>76</v>
-      </c>
-      <c r="D73">
-        <v>12</v>
+      <c r="C73" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2916,61 +2910,61 @@
         <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="7" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B75" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="20" t="s">
-        <v>105</v>
+      <c r="C75" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="7" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="B76" t="s">
         <v>2</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D76" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="7" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="B77" t="s">
         <v>2</v>
       </c>
-      <c r="C77" t="s">
-        <v>111</v>
-      </c>
-      <c r="D77">
-        <v>12.7</v>
+      <c r="C77" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D77" t="s">
+        <v>109</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2981,168 +2975,170 @@
         <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>80</v>
-      </c>
-      <c r="D78" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="F78" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
+      </c>
+      <c r="D78">
+        <v>12.7</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="7" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B79" t="s">
         <v>2</v>
       </c>
-      <c r="C79" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>116</v>
+      <c r="C79" t="s">
+        <v>80</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="7" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B80" t="s">
         <v>2</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F80" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="7" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B81" t="s">
         <v>2</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="E81" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="7" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B82" t="s">
         <v>2</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E82" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="10" t="s">
-        <v>118</v>
+      <c r="F82" s="9" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="7" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B83" t="s">
         <v>2</v>
       </c>
-      <c r="C83" t="s">
-        <v>80</v>
-      </c>
-      <c r="D83" t="s">
-        <v>119</v>
-      </c>
-      <c r="E83" s="20" t="s">
+      <c r="C83" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E83" t="s">
         <v>11</v>
       </c>
-      <c r="F83" s="9" t="s">
-        <v>82</v>
+      <c r="F83" s="10" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="7" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B84" t="s">
         <v>2</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" t="s">
+        <v>80</v>
+      </c>
+      <c r="D84" t="s">
+        <v>119</v>
+      </c>
+      <c r="E84" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F84" s="9" t="s">
+      <c r="F85" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="85" s="3" customFormat="1" spans="1:6">
-      <c r="A85" s="28" t="s">
+    <row r="86" s="3" customFormat="1" spans="1:6">
+      <c r="A86" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C85" s="28" t="s">
+      <c r="B86" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E85"/>
-      <c r="F85" s="29" t="s">
+      <c r="E86"/>
+      <c r="F86" s="29" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F86" s="9" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="7" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C87" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F87" s="10" t="s">
+      <c r="F88" s="10" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="88" s="4" customFormat="1" spans="1:6">
-      <c r="A88" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C88" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" s="33"/>
     </row>
     <row r="89" s="4" customFormat="1" spans="1:6">
       <c r="A89" s="32" t="s">
@@ -3151,12 +3147,13 @@
       <c r="B89" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F89" s="33" t="s">
-        <v>13</v>
-      </c>
+      <c r="C89" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="33"/>
     </row>
     <row r="90" s="4" customFormat="1" spans="1:6">
       <c r="A90" s="32" t="s">
@@ -3166,26 +3163,25 @@
         <v>2</v>
       </c>
       <c r="C90" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" s="33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" s="4" customFormat="1" spans="1:6">
+      <c r="A91" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F90" s="33" t="s">
+      <c r="F91" s="33" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B91" t="s">
-        <v>2</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D91" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F91" s="9"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="18" t="s">
@@ -3195,10 +3191,10 @@
         <v>2</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D92" s="19" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="D92" s="16" t="s">
+        <v>101</v>
       </c>
       <c r="F92" s="9"/>
     </row>
@@ -3210,10 +3206,10 @@
         <v>2</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D93" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="F93" s="9"/>
     </row>
@@ -3225,32 +3221,27 @@
         <v>2</v>
       </c>
       <c r="C94" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F94" s="9"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D94" s="16" t="s">
+      <c r="D95" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F94" s="9"/>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B95" t="s">
-        <v>2</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D95" t="s">
-        <v>34</v>
-      </c>
-      <c r="E95" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="F95" s="9"/>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="7" t="s">
@@ -3260,16 +3251,16 @@
         <v>2</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D96">
-        <v>15173262789</v>
+        <v>33</v>
+      </c>
+      <c r="D96" t="s">
+        <v>34</v>
       </c>
       <c r="E96" s="34" t="s">
         <v>11</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3280,65 +3271,71 @@
         <v>2</v>
       </c>
       <c r="C97" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D97">
+        <v>15173262789</v>
+      </c>
+      <c r="E97" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D97" s="20" t="s">
+      <c r="D98" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F97" s="9" t="s">
+      <c r="F98" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="22" t="s">
+    <row r="99" spans="1:6">
+      <c r="A99" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C98" s="10"/>
-      <c r="D98">
+      <c r="C99" s="10"/>
+      <c r="D99">
         <v>2000</v>
       </c>
-      <c r="F98" s="9"/>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B99" t="s">
-        <v>2</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F99" s="10" t="s">
-        <v>46</v>
-      </c>
+      <c r="F99" s="9"/>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B100" s="20" t="s">
-        <v>49</v>
+      <c r="B100" t="s">
+        <v>2</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B101" t="s">
-        <v>2</v>
+      <c r="B101" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3349,47 +3346,44 @@
         <v>2</v>
       </c>
       <c r="C102" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F102" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E102" s="34" t="s">
+      <c r="E103" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F102" s="9" t="s">
+      <c r="F103" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="23" t="s">
+    <row r="104" spans="1:6">
+      <c r="A104" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B103" t="s">
-        <v>2</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B104" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" t="s">
         <v>55</v>
       </c>
-      <c r="D103" s="24" t="s">
+      <c r="D104" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F103" s="9" t="s">
+      <c r="F104" s="9" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B104" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D104" t="s">
-        <v>22</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3399,28 +3393,31 @@
       <c r="B105" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C105" t="s">
-        <v>60</v>
+      <c r="C105" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="D105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B106" t="s">
-        <v>2</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>62</v>
+        <v>27</v>
+      </c>
+      <c r="B106" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C106" t="s">
+        <v>60</v>
+      </c>
+      <c r="D106" t="s">
+        <v>24</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3431,10 +3428,10 @@
         <v>2</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3445,89 +3442,86 @@
         <v>2</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="7" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B109" t="s">
         <v>2</v>
       </c>
-      <c r="C109" t="s">
-        <v>76</v>
-      </c>
-      <c r="D109">
-        <v>12</v>
-      </c>
-      <c r="E109" s="20" t="s">
-        <v>11</v>
+      <c r="C109" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="7" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B110" t="s">
         <v>2</v>
       </c>
-      <c r="C110" s="10" t="s">
-        <v>124</v>
+      <c r="C110" t="s">
+        <v>76</v>
+      </c>
+      <c r="D110">
+        <v>12</v>
+      </c>
+      <c r="E110" s="20" t="s">
+        <v>11</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="7" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B111" t="s">
         <v>2</v>
       </c>
-      <c r="C111" s="20" t="s">
-        <v>125</v>
+      <c r="C111" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="7" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B112" t="s">
         <v>2</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="F112" s="10" t="s">
-        <v>118</v>
+        <v>125</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="7" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B113" t="s">
         <v>2</v>
       </c>
-      <c r="C113" t="s">
-        <v>76</v>
-      </c>
-      <c r="D113">
-        <v>12</v>
-      </c>
-      <c r="F113" s="9" t="s">
-        <v>77</v>
+      <c r="C113" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F113" s="10" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3538,27 +3532,30 @@
         <v>2</v>
       </c>
       <c r="C114" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D114">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="7" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B115" t="s">
         <v>2</v>
       </c>
       <c r="C115" t="s">
-        <v>105</v>
+        <v>78</v>
+      </c>
+      <c r="D115">
+        <v>3</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3568,28 +3565,25 @@
       <c r="B116" t="s">
         <v>2</v>
       </c>
-      <c r="C116" s="20" t="s">
+      <c r="C116" t="s">
+        <v>105</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" t="s">
+        <v>2</v>
+      </c>
+      <c r="C117" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F116" s="10" t="s">
+      <c r="F117" s="10" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B117" t="s">
-        <v>2</v>
-      </c>
-      <c r="C117" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="D117" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="F117" s="10" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3600,13 +3594,13 @@
         <v>2</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D118">
-        <v>34.62</v>
+        <v>129</v>
+      </c>
+      <c r="D118" s="35" t="s">
+        <v>130</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3617,108 +3611,108 @@
         <v>2</v>
       </c>
       <c r="C119" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D119">
+        <v>34.62</v>
+      </c>
+      <c r="F119" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="D119">
+      <c r="D120">
         <v>1.38</v>
       </c>
-      <c r="F119" s="10"/>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B120" t="s">
-        <v>2</v>
-      </c>
-      <c r="C120" s="20" t="s">
+      <c r="F120" s="10"/>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" t="s">
+        <v>2</v>
+      </c>
+      <c r="C121" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F120" s="10" t="s">
+      <c r="F121" s="10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="23" t="s">
+    <row r="122" spans="1:6">
+      <c r="A122" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B121" t="s">
-        <v>2</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="B122" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" t="s">
         <v>78</v>
       </c>
-      <c r="D121" s="35" t="s">
+      <c r="D122" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="F121" s="10" t="s">
+      <c r="F122" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B122" t="s">
-        <v>2</v>
-      </c>
-      <c r="C122" s="10" t="s">
+    <row r="123" spans="1:6">
+      <c r="A123" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E123" t="s">
         <v>11</v>
       </c>
-      <c r="F122" s="10" t="s">
+      <c r="F123" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="23" t="s">
+    <row r="124" spans="1:6">
+      <c r="A124" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B123" t="s">
-        <v>2</v>
-      </c>
-      <c r="C123" s="20" t="s">
+      <c r="B124" t="s">
+        <v>2</v>
+      </c>
+      <c r="C124" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="D123">
+      <c r="D124">
         <v>1.38</v>
       </c>
-      <c r="F123" s="10"/>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B124" t="s">
-        <v>2</v>
-      </c>
-      <c r="C124" t="s">
-        <v>108</v>
-      </c>
-      <c r="D124" t="s">
-        <v>109</v>
-      </c>
-      <c r="F124" s="9" t="s">
-        <v>110</v>
-      </c>
+      <c r="F124" s="10"/>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="7" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="B125" t="s">
         <v>2</v>
       </c>
       <c r="C125" t="s">
-        <v>111</v>
-      </c>
-      <c r="D125">
-        <v>12.7</v>
+        <v>108</v>
+      </c>
+      <c r="D125" t="s">
+        <v>109</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3729,177 +3723,180 @@
         <v>2</v>
       </c>
       <c r="C126" t="s">
-        <v>80</v>
-      </c>
-      <c r="D126" s="20" t="s">
-        <v>136</v>
+        <v>111</v>
+      </c>
+      <c r="D126">
+        <v>12.7</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="7" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B127" t="s">
         <v>2</v>
       </c>
-      <c r="C127" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="E127" t="s">
-        <v>11</v>
+      <c r="C127" t="s">
+        <v>80</v>
+      </c>
+      <c r="D127" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="7" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B128" t="s">
         <v>2</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E128" t="s">
         <v>11</v>
       </c>
-      <c r="F128" s="10" t="s">
-        <v>118</v>
+      <c r="F128" s="9" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="7" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B129" t="s">
         <v>2</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E129" t="s">
         <v>11</v>
       </c>
-      <c r="F129" s="9" t="s">
-        <v>116</v>
+      <c r="F129" s="10" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="7" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B130" t="s">
         <v>2</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E130" t="s">
         <v>11</v>
       </c>
-      <c r="F130" s="10" t="s">
-        <v>118</v>
+      <c r="F130" s="9" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="7" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B131" t="s">
         <v>2</v>
       </c>
-      <c r="C131" t="s">
-        <v>80</v>
-      </c>
-      <c r="D131" t="s">
-        <v>137</v>
-      </c>
-      <c r="E131" s="20"/>
-      <c r="F131" s="9" t="s">
-        <v>82</v>
+      <c r="C131" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E131" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131" s="10" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="7" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B132" t="s">
         <v>2</v>
       </c>
-      <c r="C132" s="10" t="s">
+      <c r="C132" t="s">
+        <v>80</v>
+      </c>
+      <c r="D132" t="s">
+        <v>137</v>
+      </c>
+      <c r="E132" s="20"/>
+      <c r="F132" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" t="s">
+        <v>2</v>
+      </c>
+      <c r="C133" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F132" s="9" t="s">
+      <c r="F133" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="133" customFormat="1" spans="1:4">
-      <c r="A133" t="s">
+    <row r="134" customFormat="1" spans="1:4">
+      <c r="A134" t="s">
         <v>0</v>
       </c>
-      <c r="D133">
+      <c r="D134">
         <v>1000</v>
       </c>
     </row>
-    <row r="134" customFormat="1" spans="1:4">
-      <c r="A134" s="23" t="s">
+    <row r="135" customFormat="1" spans="1:4">
+      <c r="A135" s="23" t="s">
         <v>54</v>
-      </c>
-      <c r="B134" t="s">
-        <v>138</v>
-      </c>
-      <c r="C134" t="s">
-        <v>139</v>
-      </c>
-      <c r="D134" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="135" customFormat="1" spans="1:6">
-      <c r="A135" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="B135" t="s">
         <v>138</v>
       </c>
       <c r="C135" t="s">
-        <v>141</v>
-      </c>
-      <c r="F135" t="s">
-        <v>142</v>
+        <v>139</v>
+      </c>
+      <c r="D135" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="136" customFormat="1" spans="1:6">
       <c r="A136" s="7" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>2</v>
-      </c>
-      <c r="C136" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="F136" s="9" t="s">
-        <v>116</v>
+        <v>138</v>
+      </c>
+      <c r="C136" t="s">
+        <v>141</v>
+      </c>
+      <c r="F136" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="137" customFormat="1" spans="1:6">
       <c r="A137" s="7" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B137" t="s">
         <v>2</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="F137" s="10" t="s">
-        <v>118</v>
+        <v>125</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="138" customFormat="1" spans="1:6">
@@ -3909,11 +3906,11 @@
       <c r="B138" t="s">
         <v>2</v>
       </c>
-      <c r="C138" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F138" s="9" t="s">
-        <v>63</v>
+      <c r="C138" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F138" s="10" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="139" customFormat="1" spans="1:6">
@@ -3924,10 +3921,10 @@
         <v>2</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="140" customFormat="1" spans="1:6">
@@ -3938,61 +3935,58 @@
         <v>2</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
     </row>
     <row r="141" customFormat="1" spans="1:6">
       <c r="A141" s="7" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B141" t="s">
         <v>2</v>
       </c>
-      <c r="C141" t="s">
-        <v>76</v>
-      </c>
-      <c r="D141">
-        <v>12</v>
-      </c>
-      <c r="E141" s="20" t="s">
-        <v>11</v>
+      <c r="C141" s="9" t="s">
+        <v>143</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
     </row>
     <row r="142" customFormat="1" spans="1:6">
       <c r="A142" s="7" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B142" t="s">
         <v>2</v>
       </c>
-      <c r="C142" s="10" t="s">
-        <v>124</v>
+      <c r="C142" t="s">
+        <v>76</v>
+      </c>
+      <c r="D142">
+        <v>12</v>
+      </c>
+      <c r="E142" s="20" t="s">
+        <v>11</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="143" customFormat="1" spans="1:6">
       <c r="A143" s="7" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B143" t="s">
         <v>2</v>
       </c>
-      <c r="C143" t="s">
-        <v>76</v>
-      </c>
-      <c r="D143">
-        <v>12</v>
+      <c r="C143" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="144" customFormat="1" spans="1:6">
@@ -4003,27 +3997,30 @@
         <v>2</v>
       </c>
       <c r="C144" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D144">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="145" customFormat="1" spans="1:6">
       <c r="A145" s="7" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B145" t="s">
         <v>2</v>
       </c>
       <c r="C145" t="s">
-        <v>105</v>
+        <v>78</v>
+      </c>
+      <c r="D145">
+        <v>3</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
     </row>
     <row r="146" customFormat="1" spans="1:6">
@@ -4033,70 +4030,70 @@
       <c r="B146" t="s">
         <v>2</v>
       </c>
-      <c r="C146" s="10" t="s">
+      <c r="C146" t="s">
+        <v>105</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="147" customFormat="1" spans="1:6">
+      <c r="A147" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B147" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F146" s="9" t="s">
+      <c r="F147" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="147" customFormat="1" spans="1:6">
-      <c r="A147" s="23" t="s">
+    <row r="148" customFormat="1" spans="1:6">
+      <c r="A148" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B147" t="s">
-        <v>2</v>
-      </c>
-      <c r="C147" s="10" t="s">
+      <c r="B148" t="s">
+        <v>2</v>
+      </c>
+      <c r="C148" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D148" t="s">
         <v>145</v>
       </c>
-      <c r="F147" s="9"/>
-    </row>
-    <row r="148" customFormat="1" spans="1:4">
-      <c r="A148" t="s">
+      <c r="F148" s="9"/>
+    </row>
+    <row r="149" customFormat="1" spans="1:4">
+      <c r="A149" t="s">
         <v>0</v>
       </c>
-      <c r="D148">
+      <c r="D149">
         <v>1000</v>
       </c>
     </row>
-    <row r="149" s="5" customFormat="1" ht="27" spans="3:5">
-      <c r="C149" s="36" t="s">
+    <row r="150" s="5" customFormat="1" ht="27" spans="3:5">
+      <c r="C150" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="E149" s="5" t="s">
+      <c r="E150" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="150" customFormat="1" spans="1:6">
-      <c r="A150" s="7" t="s">
+    <row r="151" customFormat="1" spans="1:6">
+      <c r="A151" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B150" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C150" s="9" t="s">
+      <c r="B151" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C151" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F150" s="9" t="s">
+      <c r="F151" s="9" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="151" s="5" customFormat="1" spans="1:6">
-      <c r="A151" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B151" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C151" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="F151" s="40" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="152" s="5" customFormat="1" spans="1:6">
@@ -4107,15 +4104,15 @@
         <v>2</v>
       </c>
       <c r="C152" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="F152" s="39" t="s">
-        <v>148</v>
+        <v>5</v>
+      </c>
+      <c r="F152" s="40" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="153" s="5" customFormat="1" spans="1:6">
       <c r="A153" s="37" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B153" s="38" t="s">
         <v>2</v>
@@ -4123,33 +4120,33 @@
       <c r="C153" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="F153" s="40" t="s">
+      <c r="F153" s="39" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="154" s="2" customFormat="1" spans="1:6">
-      <c r="A154" s="30" t="s">
+    <row r="154" s="5" customFormat="1" spans="1:6">
+      <c r="A154" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B154" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C154" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="F154" s="40" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="155" s="2" customFormat="1" spans="1:6">
+      <c r="A155" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C154" s="31"/>
-      <c r="D154" s="2">
+      <c r="C155" s="31"/>
+      <c r="D155" s="2">
         <v>1000</v>
       </c>
-      <c r="F154" s="31"/>
-    </row>
-    <row r="155" s="2" customFormat="1" spans="1:6">
-      <c r="A155" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C155" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F155" s="31" t="s">
-        <v>13</v>
-      </c>
+      <c r="F155" s="31"/>
     </row>
     <row r="156" s="2" customFormat="1" spans="1:6">
       <c r="A156" s="15" t="s">
@@ -4159,27 +4156,24 @@
         <v>2</v>
       </c>
       <c r="C156" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F156" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" s="2" customFormat="1" spans="1:6">
+      <c r="A157" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C157" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F156" s="17" t="s">
+      <c r="F157" s="17" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="157" customFormat="1" spans="1:6">
-      <c r="A157" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B157" t="s">
-        <v>2</v>
-      </c>
-      <c r="C157" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D157" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F157" s="9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="158" customFormat="1" spans="1:6">
@@ -4190,13 +4184,13 @@
         <v>2</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D158" s="19" t="s">
-        <v>20</v>
+        <v>149</v>
+      </c>
+      <c r="D158" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="F158" s="9" t="s">
-        <v>151</v>
+        <v>44</v>
       </c>
     </row>
     <row r="159" customFormat="1" spans="1:6">
@@ -4207,13 +4201,13 @@
         <v>2</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D159" s="16" t="s">
-        <v>22</v>
+        <v>150</v>
+      </c>
+      <c r="D159" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="F159" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="160" customFormat="1" spans="1:6">
@@ -4224,27 +4218,30 @@
         <v>2</v>
       </c>
       <c r="C160" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D160" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F160" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="161" customFormat="1" spans="1:6">
+      <c r="A161" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B161" t="s">
+        <v>2</v>
+      </c>
+      <c r="C161" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D160" s="16" t="s">
+      <c r="D161" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F160" s="9" t="s">
+      <c r="F161" s="9" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="161" customFormat="1" spans="1:6">
-      <c r="A161" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B161" t="s">
-        <v>2</v>
-      </c>
-      <c r="C161" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F161" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="162" customFormat="1" spans="1:6">
@@ -4255,10 +4252,10 @@
         <v>2</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F162" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="163" customFormat="1" spans="1:6">
@@ -4269,10 +4266,10 @@
         <v>2</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
     </row>
     <row r="164" customFormat="1" spans="1:6">
@@ -4282,28 +4279,25 @@
       <c r="B164" t="s">
         <v>2</v>
       </c>
-      <c r="C164" s="10" t="s">
-        <v>68</v>
+      <c r="C164" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="F164" s="9" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
     </row>
     <row r="165" customFormat="1" spans="1:6">
       <c r="A165" s="7" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B165" t="s">
         <v>2</v>
       </c>
-      <c r="C165" t="s">
-        <v>76</v>
-      </c>
-      <c r="D165">
-        <v>12</v>
+      <c r="C165" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="F165" s="9" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="166" customFormat="1" spans="1:6">
@@ -4314,67 +4308,64 @@
         <v>2</v>
       </c>
       <c r="C166" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D166">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F166" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="167" customFormat="1" spans="1:6">
       <c r="A167" s="7" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B167" t="s">
         <v>2</v>
       </c>
-      <c r="C167" s="20" t="s">
-        <v>105</v>
+      <c r="C167" t="s">
+        <v>78</v>
+      </c>
+      <c r="D167">
+        <v>3</v>
       </c>
       <c r="F167" s="9" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
     </row>
     <row r="168" customFormat="1" spans="1:6">
       <c r="A168" s="7" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="B168" t="s">
         <v>2</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D168" t="s">
-        <v>109</v>
-      </c>
-      <c r="E168" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="169" customFormat="1" spans="1:6">
       <c r="A169" s="7" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="B169" t="s">
         <v>2</v>
       </c>
-      <c r="C169" t="s">
-        <v>111</v>
-      </c>
-      <c r="D169">
-        <v>12.7</v>
+      <c r="C169" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D169" t="s">
+        <v>109</v>
       </c>
       <c r="E169" t="s">
         <v>11</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="170" customFormat="1" spans="1:6">
@@ -4385,99 +4376,101 @@
         <v>2</v>
       </c>
       <c r="C170" t="s">
-        <v>80</v>
-      </c>
-      <c r="D170" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="F170" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
+      </c>
+      <c r="D170">
+        <v>12.7</v>
+      </c>
+      <c r="E170" t="s">
+        <v>11</v>
+      </c>
+      <c r="F170" s="9" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="171" customFormat="1" spans="1:6">
       <c r="A171" s="7" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B171" t="s">
         <v>2</v>
       </c>
-      <c r="C171" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="E171" t="s">
-        <v>11</v>
-      </c>
-      <c r="F171" s="9" t="s">
-        <v>116</v>
+      <c r="C171" t="s">
+        <v>80</v>
+      </c>
+      <c r="D171" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="F171" s="10" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="172" customFormat="1" spans="1:6">
       <c r="A172" s="7" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B172" t="s">
         <v>2</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E172" t="s">
         <v>11</v>
       </c>
-      <c r="F172" s="10" t="s">
-        <v>118</v>
+      <c r="F172" s="9" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="173" customFormat="1" spans="1:6">
       <c r="A173" s="7" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B173" t="s">
         <v>2</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E173" t="s">
         <v>11</v>
       </c>
-      <c r="F173" s="9" t="s">
-        <v>116</v>
+      <c r="F173" s="10" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="174" customFormat="1" spans="1:6">
       <c r="A174" s="7" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B174" t="s">
         <v>2</v>
       </c>
       <c r="C174" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E174" t="s">
         <v>11</v>
       </c>
-      <c r="F174" s="10" t="s">
-        <v>118</v>
+      <c r="F174" s="9" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="175" customFormat="1" spans="1:6">
       <c r="A175" s="7" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B175" t="s">
         <v>2</v>
       </c>
-      <c r="C175" t="s">
-        <v>80</v>
-      </c>
-      <c r="D175" t="s">
-        <v>81</v>
-      </c>
-      <c r="E175" s="20"/>
-      <c r="F175" s="9" t="s">
-        <v>82</v>
+      <c r="C175" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E175" t="s">
+        <v>11</v>
+      </c>
+      <c r="F175" s="10" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="176" customFormat="1" spans="1:6">
@@ -4487,15 +4480,15 @@
       <c r="B176" t="s">
         <v>2</v>
       </c>
-      <c r="C176" s="10" t="s">
-        <v>157</v>
+      <c r="C176" t="s">
+        <v>80</v>
       </c>
       <c r="D176" t="s">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="E176" s="20"/>
       <c r="F176" s="9" t="s">
-        <v>159</v>
+        <v>82</v>
       </c>
     </row>
     <row r="177" customFormat="1" spans="1:6">
@@ -4506,14 +4499,14 @@
         <v>2</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D177" s="41" t="s">
-        <v>161</v>
+        <v>157</v>
+      </c>
+      <c r="D177" t="s">
+        <v>158</v>
       </c>
       <c r="E177" s="20"/>
       <c r="F177" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="178" customFormat="1" spans="1:6">
@@ -4524,14 +4517,14 @@
         <v>2</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D178" t="s">
-        <v>164</v>
+        <v>160</v>
+      </c>
+      <c r="D178" s="41" t="s">
+        <v>161</v>
       </c>
       <c r="E178" s="20"/>
       <c r="F178" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="179" customFormat="1" spans="1:6">
@@ -4542,14 +4535,14 @@
         <v>2</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D179" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E179" s="20"/>
       <c r="F179" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="180" customFormat="1" spans="1:6">
@@ -4560,14 +4553,14 @@
         <v>2</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D180" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E180" s="20"/>
       <c r="F180" s="9" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
     </row>
     <row r="181" customFormat="1" spans="1:6">
@@ -4578,14 +4571,14 @@
         <v>2</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D181" t="s">
         <v>170</v>
       </c>
       <c r="E181" s="20"/>
       <c r="F181" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="182" customFormat="1" spans="1:6">
@@ -4596,14 +4589,14 @@
         <v>2</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="D182" s="25" t="s">
-        <v>92</v>
+        <v>171</v>
+      </c>
+      <c r="D182" t="s">
+        <v>170</v>
       </c>
       <c r="E182" s="20"/>
       <c r="F182" s="9" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
     </row>
     <row r="183" customFormat="1" spans="1:6">
@@ -4614,50 +4607,54 @@
         <v>2</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D183">
-        <v>15011128478</v>
+        <v>172</v>
+      </c>
+      <c r="D183" s="25" t="s">
+        <v>92</v>
       </c>
       <c r="E183" s="20"/>
       <c r="F183" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="184" customFormat="1" spans="1:6">
       <c r="A184" s="7" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B184" t="s">
         <v>2</v>
       </c>
       <c r="C184" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D184">
+        <v>15011128478</v>
+      </c>
+      <c r="E184" s="20"/>
+      <c r="F184" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="185" customFormat="1" spans="1:6">
+      <c r="A185" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B185" t="s">
+        <v>2</v>
+      </c>
+      <c r="C185" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F184" s="9" t="s">
+      <c r="F185" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="185" s="5" customFormat="1" spans="4:5">
-      <c r="D185" s="5" t="s">
+    <row r="186" s="5" customFormat="1" spans="4:5">
+      <c r="D186" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E185" s="5" t="s">
+      <c r="E186" s="5" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="186" s="5" customFormat="1" spans="1:6">
-      <c r="A186" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B186" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C186" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F186" s="40" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="187" s="5" customFormat="1" spans="1:6">
@@ -4667,11 +4664,11 @@
       <c r="B187" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C187" s="39" t="s">
-        <v>5</v>
+      <c r="C187" s="40" t="s">
+        <v>3</v>
       </c>
       <c r="F187" s="40" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188" s="5" customFormat="1" spans="1:6">
@@ -4682,47 +4679,46 @@
         <v>2</v>
       </c>
       <c r="C188" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="F188" s="40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" s="5" customFormat="1" spans="1:6">
+      <c r="A189" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C189" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F188" s="39" t="s">
+      <c r="F189" s="39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
-      <c r="A189" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B189" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C189" s="10" t="s">
+    <row r="190" spans="1:6">
+      <c r="A190" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C190" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F189" s="9" t="s">
+      <c r="F190" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
-      <c r="A190" t="s">
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
         <v>0</v>
       </c>
-      <c r="D190">
+      <c r="D191">
         <v>1000</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="A191" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B191" t="s">
-        <v>2</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D191" s="2"/>
-      <c r="F191" s="9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4733,11 +4729,11 @@
         <v>2</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D192" s="2"/>
-      <c r="F192" s="10" t="s">
-        <v>15</v>
+      <c r="F192" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4747,28 +4743,28 @@
       <c r="B193" t="s">
         <v>2</v>
       </c>
-      <c r="C193" s="10" t="s">
+      <c r="C193" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D193" s="2"/>
+      <c r="F193" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B194" t="s">
+        <v>2</v>
+      </c>
+      <c r="C194" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E193" s="20"/>
-      <c r="F193" s="21" t="s">
+      <c r="E194" s="20"/>
+      <c r="F194" s="21" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B194" t="s">
-        <v>2</v>
-      </c>
-      <c r="C194" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D194" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F194" s="9"/>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="18" t="s">
@@ -4778,10 +4774,10 @@
         <v>2</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D195" s="19" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="D195" s="16" t="s">
+        <v>101</v>
       </c>
       <c r="F195" s="9"/>
     </row>
@@ -4793,10 +4789,10 @@
         <v>2</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D196" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="D196" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="F196" s="9"/>
     </row>
@@ -4808,80 +4804,81 @@
         <v>2</v>
       </c>
       <c r="C197" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D197" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F197" s="9"/>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B198" t="s">
+        <v>2</v>
+      </c>
+      <c r="C198" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D197" s="16" t="s">
+      <c r="D198" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F197" s="9"/>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="A198" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B198" t="s">
-        <v>2</v>
-      </c>
-      <c r="C198" s="9" t="s">
+      <c r="F198" s="9"/>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B199" t="s">
+        <v>2</v>
+      </c>
+      <c r="C199" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D198" s="20" t="s">
+      <c r="D199" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F198" s="9" t="s">
+      <c r="F199" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
-      <c r="A199" s="22" t="s">
+    <row r="200" spans="1:6">
+      <c r="A200" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C199" s="10"/>
-      <c r="D199">
+      <c r="C200" s="10"/>
+      <c r="D200">
         <v>1000</v>
       </c>
-      <c r="F199" s="9"/>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B200" t="s">
-        <v>2</v>
-      </c>
-      <c r="C200" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F200" s="10" t="s">
-        <v>46</v>
-      </c>
+      <c r="F200" s="9"/>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B201" s="20" t="s">
-        <v>49</v>
+      <c r="B201" t="s">
+        <v>2</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F201" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B202" t="s">
-        <v>2</v>
+      <c r="B202" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F202" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4891,45 +4888,42 @@
       <c r="B203" t="s">
         <v>2</v>
       </c>
-      <c r="C203" s="9" t="s">
+      <c r="C203" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F203" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B204" t="s">
+        <v>2</v>
+      </c>
+      <c r="C204" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F203" s="9" t="s">
+      <c r="F204" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
-      <c r="A204" s="23" t="s">
+    <row r="205" spans="1:6">
+      <c r="A205" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B204" t="s">
-        <v>2</v>
-      </c>
-      <c r="C204" t="s">
+      <c r="B205" t="s">
+        <v>2</v>
+      </c>
+      <c r="C205" t="s">
         <v>55</v>
       </c>
-      <c r="D204" s="24" t="s">
+      <c r="D205" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="F204" s="9" t="s">
+      <c r="F205" s="9" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="A205" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B205" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C205" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D205" t="s">
-        <v>177</v>
-      </c>
-      <c r="F205" s="9" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4939,53 +4933,56 @@
       <c r="B206" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C206" t="s">
-        <v>60</v>
+      <c r="C206" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="D206" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F206" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B207" t="s">
-        <v>2</v>
-      </c>
-      <c r="C207" s="9" t="s">
-        <v>62</v>
+        <v>27</v>
+      </c>
+      <c r="B207" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C207" t="s">
+        <v>60</v>
+      </c>
+      <c r="D207" t="s">
+        <v>178</v>
       </c>
       <c r="F207" s="9" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C208" s="9"/>
-      <c r="D208">
-        <v>1000</v>
-      </c>
-      <c r="F208" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="B208" t="s">
+        <v>2</v>
+      </c>
+      <c r="C208" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F208" s="9" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B209" t="s">
-        <v>2</v>
-      </c>
-      <c r="C209" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F209" s="9" t="s">
-        <v>65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C209" s="9"/>
+      <c r="D209">
+        <v>1000</v>
+      </c>
+      <c r="F209" s="9"/>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="7" t="s">
@@ -4995,10 +4992,10 @@
         <v>2</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F210" s="9" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5008,28 +5005,25 @@
       <c r="B211" t="s">
         <v>2</v>
       </c>
-      <c r="C211" s="10" t="s">
-        <v>124</v>
+      <c r="C211" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="F211" s="9" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="7" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B212" t="s">
         <v>2</v>
       </c>
-      <c r="C212" t="s">
-        <v>76</v>
-      </c>
-      <c r="D212">
-        <v>12</v>
+      <c r="C212" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="F212" s="9" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5040,47 +5034,47 @@
         <v>2</v>
       </c>
       <c r="C213" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D213">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F213" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="7" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="B214" t="s">
         <v>2</v>
       </c>
       <c r="C214" t="s">
-        <v>108</v>
-      </c>
-      <c r="D214" t="s">
-        <v>109</v>
+        <v>78</v>
+      </c>
+      <c r="D214">
+        <v>3</v>
       </c>
       <c r="F214" s="9" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="7" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="B215" t="s">
         <v>2</v>
       </c>
       <c r="C215" t="s">
-        <v>111</v>
-      </c>
-      <c r="D215">
-        <v>12.7</v>
+        <v>108</v>
+      </c>
+      <c r="D215" t="s">
+        <v>109</v>
       </c>
       <c r="F215" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5091,113 +5085,116 @@
         <v>2</v>
       </c>
       <c r="C216" t="s">
-        <v>80</v>
-      </c>
-      <c r="D216" t="s">
-        <v>81</v>
+        <v>111</v>
+      </c>
+      <c r="D216">
+        <v>12.7</v>
       </c>
       <c r="F216" s="9" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="7" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B217" t="s">
         <v>2</v>
       </c>
-      <c r="C217" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="E217" t="s">
-        <v>11</v>
+      <c r="C217" t="s">
+        <v>80</v>
+      </c>
+      <c r="D217" t="s">
+        <v>81</v>
       </c>
       <c r="F217" s="9" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="7" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B218" t="s">
         <v>2</v>
       </c>
       <c r="C218" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E218" t="s">
         <v>11</v>
       </c>
       <c r="F218" s="9" t="s">
-        <v>179</v>
+        <v>116</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="7" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B219" t="s">
         <v>2</v>
       </c>
       <c r="C219" s="20" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E219" t="s">
         <v>11</v>
       </c>
       <c r="F219" s="9" t="s">
-        <v>116</v>
+        <v>179</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="7" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B220" t="s">
         <v>2</v>
       </c>
       <c r="C220" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E220" t="s">
         <v>11</v>
       </c>
       <c r="F220" s="9" t="s">
-        <v>179</v>
+        <v>116</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="7" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B221" t="s">
         <v>2</v>
       </c>
-      <c r="C221" t="s">
-        <v>80</v>
-      </c>
-      <c r="D221" t="s">
-        <v>180</v>
-      </c>
-      <c r="E221" s="20"/>
+      <c r="C221" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E221" t="s">
+        <v>11</v>
+      </c>
       <c r="F221" s="9" t="s">
-        <v>82</v>
+        <v>179</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="7" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B222" t="s">
         <v>2</v>
       </c>
-      <c r="C222" s="10" t="s">
-        <v>181</v>
-      </c>
+      <c r="C222" t="s">
+        <v>80</v>
+      </c>
+      <c r="D222" t="s">
+        <v>180</v>
+      </c>
+      <c r="E222" s="20"/>
       <c r="F222" s="9" t="s">
-        <v>182</v>
+        <v>82</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5208,80 +5205,77 @@
         <v>2</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F223" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B224" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B224" t="s">
         <v>2</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="F224" s="9" t="s">
-        <v>4</v>
+        <v>184</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="7" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B225" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C225" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F225" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C226" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="F225" s="9" t="s">
+      <c r="F226" s="9" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
-      <c r="A226" t="s">
-        <v>27</v>
-      </c>
-      <c r="B226" t="s">
-        <v>2</v>
-      </c>
-      <c r="C226" t="s">
+    <row r="227" spans="1:6">
+      <c r="A227" t="s">
+        <v>27</v>
+      </c>
+      <c r="B227" t="s">
+        <v>2</v>
+      </c>
+      <c r="C227" t="s">
         <v>187</v>
       </c>
-      <c r="D226" s="20" t="s">
+      <c r="D227" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F226" t="s">
+      <c r="F227" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
-      <c r="A227" t="s">
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
         <v>189</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D228" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B228" t="s">
-        <v>2</v>
-      </c>
-      <c r="C228" t="s">
-        <v>191</v>
-      </c>
-      <c r="E228" t="s">
-        <v>11</v>
-      </c>
-      <c r="F228" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5292,7 +5286,7 @@
         <v>2</v>
       </c>
       <c r="C229" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E229" t="s">
         <v>11</v>
@@ -5309,7 +5303,7 @@
         <v>2</v>
       </c>
       <c r="C230" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E230" t="s">
         <v>11</v>
@@ -5318,26 +5312,43 @@
         <v>192</v>
       </c>
     </row>
-    <row r="231" s="6" customFormat="1" spans="3:5">
-      <c r="C231" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E231" s="6" t="s">
+    <row r="231" spans="1:6">
+      <c r="A231" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B231" t="s">
+        <v>2</v>
+      </c>
+      <c r="C231" t="s">
+        <v>194</v>
+      </c>
+      <c r="E231" t="s">
         <v>11</v>
+      </c>
+      <c r="F231" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="232" s="6" customFormat="1" spans="3:5">
       <c r="C232" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E232" s="6" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="233" s="6" customFormat="1" spans="3:5">
+      <c r="C233" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E233" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D44" r:id="rId1" display="huhaixiang@yonyou.com"/>
-    <hyperlink ref="D182" r:id="rId1" display="huhaixiang@yonyou.com"/>
+    <hyperlink ref="D45" r:id="rId1" display="huhaixiang@yonyou.com"/>
+    <hyperlink ref="D183" r:id="rId1" display="huhaixiang@yonyou.com"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
